--- a/FieldData/EosFD/All_Synoptic_Flux_Data.xlsx
+++ b/FieldData/EosFD/All_Synoptic_Flux_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/default/Ecuador/FieldData/EosFD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador\EcuadorGitHub\FieldData\EosFD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83AE753-C314-DB47-A5F4-FFFC185A5D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C83AE753-C314-DB47-A5F4-FFFC185A5D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A7F64CFD-9263-4B25-B939-44F6E9BC0778}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{30152B82-ADD7-AD45-8599-9C2352215C82}"/>
+    <workbookView xWindow="2960" yWindow="500" windowWidth="11550" windowHeight="9700" xr2:uid="{30152B82-ADD7-AD45-8599-9C2352215C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -894,11 +894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64EC74C5-22D8-094E-BDF0-4930F9C7D5A3}">
   <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="W27" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30:AD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="17.83203125" customWidth="1"/>
@@ -908,10 +908,11 @@
     <col min="17" max="17" width="17.83203125" customWidth="1"/>
     <col min="22" max="22" width="21.83203125" customWidth="1"/>
     <col min="24" max="24" width="17.83203125" customWidth="1"/>
+    <col min="29" max="29" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="7" customFormat="1" ht="18.5">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -988,7 +989,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>245.2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>217.6</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>217.6</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>217.6</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>217.6</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>11</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31">
       <c r="A17">
         <v>11</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>169.9</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31">
       <c r="A21">
         <v>14</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>143.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31">
       <c r="A26">
         <v>20</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31">
       <c r="A27">
         <v>20</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31">
       <c r="A28">
         <v>20</v>
       </c>
@@ -3232,7 +3233,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31">
       <c r="A29">
         <v>20</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31">
       <c r="A30">
         <v>23</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31">
       <c r="A31">
         <v>23</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31">
       <c r="A32">
         <v>23</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31">
       <c r="A33">
         <v>23</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31">
       <c r="A34">
         <v>29</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31">
       <c r="A35">
         <v>29</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31">
       <c r="A36">
         <v>29</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31">
       <c r="A37">
         <v>29</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31">
       <c r="A38">
         <v>35</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31">
       <c r="A39">
         <v>35</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31">
       <c r="A40">
         <v>35</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31">
       <c r="A41">
         <v>35</v>
       </c>
